--- a/biology/Médecine/Richeria_grandis/Richeria_grandis.xlsx
+++ b/biology/Médecine/Richeria_grandis/Richeria_grandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richeria grandis
 Richeria grandis est une espèce de plantes à fleurs de la famille des Phyllanthaceae (anciennement des Euphorbiacées). C'est un arbre qui pousse dans les îles des Caraïbes.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richeria grandis est un grand arbre à feuilles persistantes avec une écorce brune et une écorce interne brun-orange.
 Il a des feuilles simples et alternes avec une marge entière. Les feuilles sont grandes, généralement 10–20 centimètres (4–8 pouces) de long jusqu'à 30 centimètres (12 pouces) de long et 13 centimètres (5 pouces) de large.
@@ -547,53 +561,160 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Richeria grandis a été décrite par le botaniste danois Martin Vahl en 1797.
-Nom vernaculaire
-Bois bandé.
-Synonymie
-Amanoa divaricata Poepp.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Richeria grandis a été décrite par le botaniste danois Martin Vahl en 1797.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Richeria_grandis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richeria_grandis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bois bandé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Richeria_grandis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richeria_grandis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amanoa divaricata Poepp.
 Guarania laurifolia Baill.
 Guarania ramiflora Wedd. ex Baill.
 Richeria laurifolia (Baill.) Baill.
 Richeria obovata (Müll.Arg.) Pax &amp; K.Hoffm.
 Richeria racemosa (Poepp. &amp; Endl.) Pax &amp; K. Hoffm.
-Richeria submembranacea Steyerm.
-Taxinomie
-Deux variétés sont reconnues (Selon World Checklist of Selected Plant Families (WCSP)  (4 févr. 2012)[2])
+Richeria submembranacea Steyerm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Richeria_grandis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richeria_grandis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Deux variétés sont reconnues (Selon World Checklist of Selected Plant Families (WCSP)  (4 févr. 2012))
 Richeria grandis grandis Vahl
 Richeria grandis gardneriana (Baill.) Müll.Arg. (1866)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Richeria_grandis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Richeria_grandis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois bandé est couramment utilisé en guise d'aphrodisiaque[3], bien que les effets n'aient pas été prouvés.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois bandé est couramment utilisé en guise d'aphrodisiaque, bien que les effets n'aient pas été prouvés.
 L'écorce de Richeria grandis est souvent infusée dans du rhum supposément pour augmenter son effet vasodilatateur.
 </t>
         </is>
